--- a/flights.xlsx
+++ b/flights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinay.dilip.raut/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8984CC8C-EBB1-2B4C-8BBD-4B2A1C88E98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C97A4B-1DAE-7F46-BEC8-592F9DF8D3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{FC58ADE8-73B6-1F40-AE02-538B3E2A7BD1}"/>
   </bookViews>
@@ -36,59 +36,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
-  <si>
-    <t xml:space="preserve"> From     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FlightNumber </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Time     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Doha     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dubai    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QR101        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 09:00 AM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> London   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QR102        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01:00 PM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Delhi    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QR103        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 07:00 PM </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>FlightNumber</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Doha</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>QR101</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>QR102</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>QR103</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>QR104</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>QR107</t>
+  </si>
+  <si>
+    <t>QR108</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>QR110</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>QR115</t>
+  </si>
+  <si>
+    <t>QR120</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>QR105</t>
+  </si>
+  <si>
+    <t>QR106</t>
+  </si>
+  <si>
+    <t>QR109</t>
+  </si>
+  <si>
+    <t>QR111</t>
+  </si>
+  <si>
+    <t>QR112</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>QR113</t>
+  </si>
+  <si>
+    <t>QR114</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>QR116</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>QR117</t>
+  </si>
+  <si>
+    <t>QR118</t>
+  </si>
+  <si>
+    <t>QR119</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -116,8 +190,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,32 +529,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFE3FB2-254F-FC4B-AE8F-C0840F1E079B}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -487,45 +567,434 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="D2" s="2">
+        <v>0.375</v>
       </c>
       <c r="E2">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="3">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+      <c r="D3" s="2">
+        <v>0.54166666666666663</v>
       </c>
       <c r="E3">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="3">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.79166666666666663</v>
       </c>
       <c r="E4">
         <v>250</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="E5">
+        <v>130</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E6">
+        <v>260</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E7">
+        <v>510</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E8">
+        <v>600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E9">
+        <v>590</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E10">
+        <v>1200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E11">
+        <v>1180</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E12">
+        <v>1400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>45795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E13">
+        <v>1380</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E14">
+        <v>350</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E15">
+        <v>340</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E16">
+        <v>700</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E17">
+        <v>690</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45796</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E18">
+        <v>720</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E19">
+        <v>710</v>
+      </c>
+      <c r="F19" s="3">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E20">
+        <v>1300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E21">
+        <v>1280</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E22">
+        <v>120</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E23">
+        <v>130</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45798</v>
       </c>
     </row>
   </sheetData>
